--- a/recommendation/输入输出示例.xlsx
+++ b/recommendation/输入输出示例.xlsx
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>seansong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2|5|10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +130,10 @@
   </si>
   <si>
     <t>回锅肉需要盐|料酒|酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seansoning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -536,53 +536,53 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
